--- a/saldo_socios.xlsx
+++ b/saldo_socios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luiz</t>
+          <t>luiz</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>pedro</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lucas</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
